--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2321074.058937198</v>
+        <v>2428193.542118741</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577125</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5803365.508035886</v>
+        <v>6136375.482610927</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>112.9492716398729</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>383.0563305660132</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.81478296402829</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>273.3478077638063</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>253.438429595935</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.8811805152114</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>101.3561475855706</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>196.5496682025252</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>196.1723863059666</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>351.2182530256338</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>91.92601504701668</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>208.7954407557548</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1382,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>232.4019799457699</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>157.6386052024378</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>176.9928356388606</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>222.272542280936</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>28.76542746491501</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>101.9929615813388</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250119</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>168.9164623971668</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>103.7534293131364</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.2748171257525</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>46.27323811058075</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.7171704536202</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2533,10 +2535,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>106.2107844952006</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074655</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2965,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>191.1956243909404</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>264.5762848854865</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>136.47324553942</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875706</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3667,10 +3669,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9792982657125</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3715,19 +3717,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>164.7047943182447</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>247.917352209594</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3904,10 +3906,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>6.132873868425181</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3986,10 +3988,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>376.7882577025301</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4031,13 +4033,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>122.3002432816184</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.2522897001689</v>
+        <v>273.1206945954281</v>
       </c>
       <c r="C2" t="n">
-        <v>801.3919637538731</v>
+        <v>250.2603686491322</v>
       </c>
       <c r="D2" t="n">
-        <v>378.0993429388733</v>
+        <v>231.0081518745366</v>
       </c>
       <c r="E2" t="n">
-        <v>356.162807127135</v>
+        <v>209.0716160627982</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>187.9878382926025</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>187.6891799224552</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>380.7336570066843</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>859.6725812491122</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>859.6725812491122</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>1338.61150549154</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1714.181193660504</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1455.826284256916</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="W2" t="n">
-        <v>1228.282702386317</v>
+        <v>701.9455196835124</v>
       </c>
       <c r="X2" t="n">
-        <v>841.3571159560006</v>
+        <v>290.2255208512597</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.060249951295</v>
+        <v>288.928654846554</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.542625066816</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843207</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996057</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725429</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554471</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730511</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>605.3580582777887</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>605.3580582777887</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662884</v>
+        <v>605.3580582777887</v>
       </c>
       <c r="N3" t="n">
-        <v>1407.269712569019</v>
+        <v>605.3580582777887</v>
       </c>
       <c r="O3" t="n">
-        <v>1407.269712569019</v>
+        <v>910.0030534259602</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.941977668388</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.087454531167</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177125</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474803</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.13438539444</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533706</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366923</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335863</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868787</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.6805607205508</v>
+        <v>422.2892318563563</v>
       </c>
       <c r="C4" t="n">
-        <v>136.6805607205508</v>
+        <v>250.3166687352723</v>
       </c>
       <c r="D4" t="n">
-        <v>136.6805607205508</v>
+        <v>86.99989586204296</v>
       </c>
       <c r="E4" t="n">
-        <v>136.6805607205508</v>
+        <v>86.99989586204296</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>86.99989586204296</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>86.99989586204296</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>450.8827848108962</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>842.068579781147</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1219.560090657183</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1574.988219336946</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1352.317065516527</v>
+        <v>1411.582968342075</v>
       </c>
       <c r="V4" t="n">
-        <v>1070.605598124556</v>
+        <v>1129.871500950104</v>
       </c>
       <c r="W4" t="n">
-        <v>795.7531942970693</v>
+        <v>855.0190971226168</v>
       </c>
       <c r="X4" t="n">
-        <v>553.1892977428744</v>
+        <v>612.4552005684219</v>
       </c>
       <c r="Y4" t="n">
-        <v>326.8465294326164</v>
+        <v>612.4552005684219</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.292693740573</v>
+        <v>1874.83396633247</v>
       </c>
       <c r="C5" t="n">
-        <v>1205.432367794277</v>
+        <v>1447.93323634577</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.180151019681</v>
+        <v>1024.64061553077</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.243615207943</v>
+        <v>598.6636756786278</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>357.6855680512415</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y5" t="n">
-        <v>1244.100653991699</v>
+        <v>1890.641926583596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>957.9304488282003</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>957.9304488282003</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>957.9304488282003</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.1137459742962</v>
+        <v>795.2141720205701</v>
       </c>
       <c r="C7" t="n">
-        <v>549.1137459742962</v>
+        <v>623.2416088994861</v>
       </c>
       <c r="D7" t="n">
-        <v>549.1137459742962</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E7" t="n">
-        <v>549.1137459742962</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.241513747949</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V7" t="n">
-        <v>1066.530046355978</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>791.6776425284911</v>
+        <v>1454.286805597088</v>
       </c>
       <c r="X7" t="n">
-        <v>549.1137459742962</v>
+        <v>1211.722909042894</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.1137459742962</v>
+        <v>985.3801407326357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>965.3211864711365</v>
+        <v>709.2637433779112</v>
       </c>
       <c r="C8" t="n">
-        <v>942.4608605248407</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>519.1682397098409</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>497.2317038981026</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>357.6855680512415</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.466416767372</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1291467222625</v>
+        <v>1129.112107669441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023297</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050605</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358747</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.4493923334804</v>
+        <v>856.0490050883208</v>
       </c>
       <c r="C10" t="n">
-        <v>280.4768292123964</v>
+        <v>684.0764419672367</v>
       </c>
       <c r="D10" t="n">
-        <v>280.4768292123964</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E10" t="n">
-        <v>280.4768292123964</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1705.706449074958</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.706449074958</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1425.522000575262</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1143.810533183291</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="W10" t="n">
-        <v>868.958129355804</v>
+        <v>1515.121638664839</v>
       </c>
       <c r="X10" t="n">
-        <v>868.958129355804</v>
+        <v>1272.557742110644</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.615361045546</v>
+        <v>1046.214973800386</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2071.647100753406</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1644.746370766707</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.453749951707</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>795.4768100995645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>370.3526282889648</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889648</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>933.2347156986193</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1830.227306515739</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2727.219897332859</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3624.212488149979</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3624.212488149979</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149979</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149979</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023119</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3519.845194023119</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3285.095719330422</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2888.704369630769</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2476.984370798516</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.647100753406</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>934.6666656109303</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>934.6666656109303</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>934.6666656109303</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>991.6906023320378</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>569.9446969357482</v>
+        <v>3688.37878668216</v>
       </c>
       <c r="C13" t="n">
-        <v>397.9721338146642</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="D13" t="n">
-        <v>397.9721338146642</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="E13" t="n">
-        <v>397.9721338146642</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F13" t="n">
-        <v>238.7412194687674</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299957</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299957</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299957</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>4719.18136743828</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>4438.996918938585</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>4157.285451546613</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>4157.285451546613</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>3914.721554992418</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.1106656478138</v>
+        <v>3688.37878668216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2402.635504113686</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1975.734774126986</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1552.442153311986</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1126.465213459844</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>701.3410316492439</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>297.0019692386925</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1830.227306515739</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2727.219897332859</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>3624.212488149979</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149979</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149979</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149979</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149979</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149979</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3624.212488149979</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3227.821138450326</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3227.821138450326</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2822.483868405216</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425907</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>991.6906023320378</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>991.6906023320378</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.7137825898515</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="C16" t="n">
-        <v>238.7412194687674</v>
+        <v>604.7287118149693</v>
       </c>
       <c r="D16" t="n">
-        <v>238.7412194687674</v>
+        <v>441.41193894174</v>
       </c>
       <c r="E16" t="n">
-        <v>238.7412194687674</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299957</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2149.874083659624</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1906.534735885524</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1626.350287385828</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V16" t="n">
-        <v>1344.638819993857</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W16" t="n">
-        <v>1069.78641616637</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X16" t="n">
-        <v>827.2225196121751</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y16" t="n">
-        <v>600.8797513019172</v>
+        <v>966.867243648119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,52 +5503,52 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2856.963518260711</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747412</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747412</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
         <v>4173.998480931861</v>
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690841</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109899</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.0699265966</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747412</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.49385590534</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5841,13 +5843,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878698</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>966.1989425207157</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>794.2263793996317</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>630.9096065264024</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>464.7014006792559</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>292.8396264538163</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>1156.364911232781</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5971,19 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5993,46 +5995,46 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6059,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
         <v>102.3027134058285</v>
@@ -6072,10 +6074,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.735894343786</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.4793615910734</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>703.5067984699893</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>540.1900255967601</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2089.588847494775</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1809.404398995079</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="V31" t="n">
-        <v>1809.404398995079</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W31" t="n">
-        <v>1534.551995167592</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X31" t="n">
-        <v>1291.988098613397</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1065.645330303139</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6716,7 +6718,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6774,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>946.5481644506465</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.844867123559</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6940,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1429.986740661465</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>888.2776948471594</v>
+        <v>3530.273159564166</v>
       </c>
       <c r="C37" t="n">
-        <v>750.4259316760281</v>
+        <v>3530.273159564166</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>3366.956386690937</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V37" t="n">
-        <v>1822.202732251165</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.350328423678</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X37" t="n">
-        <v>1304.786431869483</v>
+        <v>3756.615927874424</v>
       </c>
       <c r="Y37" t="n">
-        <v>1078.443663559225</v>
+        <v>3530.273159564166</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,37 +7162,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7199,10 +7201,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.947609078273</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>707.975045957189</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>544.6582730839597</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>544.6582730839597</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1587.529878172021</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1312.677474344533</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X40" t="n">
-        <v>1070.113577790339</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="Y40" t="n">
-        <v>1070.113577790339</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1154.14561004873</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>727.2448800620298</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>727.2448800620298</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>727.2448800620298</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>727.2448800620298</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>322.9058176514784</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.4842497629996</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.596016555394</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M41" t="n">
-        <v>1150.596016555394</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N41" t="n">
-        <v>1497.146744455154</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605966</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763894</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268077</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.21248814998</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.21248814998</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194613</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791025</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917275</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051243217622</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>1979.331244385369</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1573.99397434026</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045025</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>942.113308572842</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>942.113308572842</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O42" t="n">
-        <v>942.113308572842</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.7369761063553</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C43" t="n">
-        <v>341.7644129852713</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D43" t="n">
-        <v>178.447640112042</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E43" t="n">
-        <v>172.2528180227236</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2528180227236</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="G43" t="n">
-        <v>172.2528180227236</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2009.557929402028</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.373480902332</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.662013510361</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.809609682874</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X43" t="n">
-        <v>930.2457131286789</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.9029448184209</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2062.013989898861</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1635.113259912161</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1211.820639097161</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>785.8436992450189</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>405.2494995454936</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>2047.588607372514</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>2047.588607372514</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N44" t="n">
-        <v>2779.067837999168</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3624.21248814998</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.21248814998</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.21248814998</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.21248814998</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.84519402312</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067753</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3298.919623067753</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3298.919623067753</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3298.919623067753</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2887.199624235501</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2481.862354190391</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.4842497629996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.4842497629996</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>72.4842497629996</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>72.4842497629996</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2830578459058</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M45" t="n">
-        <v>1806.275648663026</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N45" t="n">
-        <v>1806.275648663026</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>625.3133960174614</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>625.3133960174614</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>461.9966231442321</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>295.7884172970856</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>295.7884172970856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>295.7884172970856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.4842497629996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1559.238433421467</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.38602959398</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1041.822133039785</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>815.4793647295271</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>374.9063450556541</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533995</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884136</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1121742943703</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>330.8941070436075</v>
       </c>
       <c r="P3" t="n">
-        <v>464.528326530402</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>257.8539471611812</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>353.4336722031772</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104602</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>375.55972550576</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8374,10 +8376,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>353.4336722031772</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>183.8904958969888</v>
+        <v>98.52275580777444</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8623,7 +8625,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>292.925107980384</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>538.9433958642278</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701175</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719407</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>453.1210588457837</v>
       </c>
       <c r="N12" t="n">
-        <v>78.94296429546841</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>724.8082949178196</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369264</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719407</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>676.564443572257</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9021,13 +9023,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>270.9648976856321</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>791.899940114797</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9501690078888</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9489,16 +9491,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O21" t="n">
-        <v>749.8109645784242</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9641,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286654</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>129.8669649843445</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9887,7 +9889,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9963,10 +9965,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>774.1253005797566</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>509.0341153029024</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>528.4469852324416</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10449,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,13 +10588,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N36" t="n">
-        <v>424.3574658298753</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>700.6282357017791</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>387.3308631372336</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171366</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701179</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>776.1475325583385</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11382,16 +11384,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>929.149902549823</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>98.82464899543803</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>121.5125407792432</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>12.50455128074742</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>63.91311865749836</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.61715245976956</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>135.78069632376</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>66.44073542471769</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>71.98949189919222</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.1409234049149</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.98949189919253</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>118.3211618981294</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.8930952940115</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>65.01789851058589</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>49.7103299054186</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>12.80631912921223</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>37.45454936137503</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>33.77959195045315</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>179.4924275998958</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.16385821747269</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>59.37454630891071</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97234253111151</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>158.4132499202498</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.65045210707571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>44.08468228996367</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>20.05806252530877</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>511855.1515395822</v>
+        <v>513232.0426107609</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>511855.1515395822</v>
+        <v>517690.1138292578</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>511855.1515395822</v>
+        <v>517690.1138292578</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425786.4774855056</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425786.4774855056</v>
+        <v>535521.0028978623</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>535521.0028978621</v>
+        <v>535521.0028978623</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>535521.0028978621</v>
+        <v>535521.0028978623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>535521.0028978621</v>
+        <v>535521.0028978623</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535521.0028978621</v>
+        <v>535521.0028978623</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425786.4774855059</v>
+        <v>535521.0028978623</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425786.4774855057</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>553320.5346106048</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106048</v>
+        <v>553320.5346106049</v>
       </c>
       <c r="D2" t="n">
-        <v>553320.5346106049</v>
+        <v>553320.534610605</v>
       </c>
       <c r="E2" t="n">
-        <v>424545.031555838</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.031555838</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="G2" t="n">
+        <v>533928.8829805747</v>
+      </c>
+      <c r="H2" t="n">
         <v>533928.8829805746</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="I2" t="n">
-        <v>533928.882980575</v>
-      </c>
       <c r="J2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="K2" t="n">
+        <v>533928.8829805751</v>
+      </c>
+      <c r="L2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="M2" t="n">
         <v>533928.8829805746</v>
       </c>
-      <c r="K2" t="n">
-        <v>533928.8829805744</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533928.8829805745</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>533928.8829805747</v>
+      </c>
+      <c r="O2" t="n">
         <v>533928.8829805749</v>
       </c>
-      <c r="N2" t="n">
-        <v>533928.882980575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424545.031555838</v>
-      </c>
       <c r="P2" t="n">
-        <v>424545.0315558381</v>
+        <v>533928.8829805749</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943097</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.516942757</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091335</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795536</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>68898.71414051217</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
-        <v>68898.71414051217</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784774</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="N4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="N4" t="n">
-        <v>86696.74064784778</v>
-      </c>
       <c r="O4" t="n">
-        <v>68898.71414051217</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="P4" t="n">
-        <v>68898.71414051218</v>
+        <v>86696.74064784775</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987969</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987969</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129902.8207800585</v>
+        <v>124787.6434392989</v>
       </c>
       <c r="C6" t="n">
-        <v>284528.541398179</v>
+        <v>271223.7211469441</v>
       </c>
       <c r="D6" t="n">
-        <v>284528.5413981791</v>
+        <v>294630.5548205565</v>
       </c>
       <c r="E6" t="n">
-        <v>167794.6195858441</v>
+        <v>153742.7235876567</v>
       </c>
       <c r="F6" t="n">
-        <v>300558.2875954461</v>
+        <v>369482.0801442974</v>
       </c>
       <c r="G6" t="n">
-        <v>267322.1600499875</v>
+        <v>369482.0801442973</v>
       </c>
       <c r="H6" t="n">
+        <v>369482.0801442972</v>
+      </c>
+      <c r="I6" t="n">
         <v>369482.0801442973</v>
       </c>
-      <c r="I6" t="n">
-        <v>369482.0801442976</v>
-      </c>
       <c r="J6" t="n">
-        <v>248759.5632015401</v>
+        <v>242904.8115640087</v>
       </c>
       <c r="K6" t="n">
-        <v>369482.0801442969</v>
+        <v>350835.4797872778</v>
       </c>
       <c r="L6" t="n">
-        <v>369482.080144297</v>
+        <v>369482.0801442974</v>
       </c>
       <c r="M6" t="n">
-        <v>258672.7200351639</v>
+        <v>189418.2086891295</v>
       </c>
       <c r="N6" t="n">
-        <v>369482.0801442975</v>
+        <v>369482.0801442973</v>
       </c>
       <c r="O6" t="n">
-        <v>300558.2875954462</v>
+        <v>369482.0801442974</v>
       </c>
       <c r="P6" t="n">
-        <v>300558.2875954462</v>
+        <v>369482.0801442974</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.053122037495</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.053122037495</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353618</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603346</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353618</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>181.9404231008326</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>24.54646827791703</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27552,10 +27554,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>94.54352284289885</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4.034796250892441</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>167.4345103965587</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>213.4027168294472</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>68.78700889761458</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>75.55421158668693</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>226.4593363808662</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>56.38454581829637</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>76.50768195903981</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>63.30843903345735</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29530,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>345.4863855700676</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O2" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>307.7222173213853</v>
       </c>
       <c r="P3" t="n">
-        <v>442.7574853255733</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>235.4731465031947</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>324.0137127175907</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>352.3878357835378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35094,10 +35096,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>324.0137127175907</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>160.7937153846608</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35343,7 +35345,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>270.4259204819595</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>503.1787950694184</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374946</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="N12" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>686.4962524851967</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374946</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>654.0493568580274</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>249.1940564808034</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>754.4686772153652</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>191.6381265752659</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36209,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O21" t="n">
-        <v>726.639074856202</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.492718418434</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36607,7 +36609,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>505.3502047201137</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N36" t="n">
-        <v>403.0144376163336</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>350.0512403027876</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P42" t="n">
-        <v>396.862408912308</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.053122037495</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>738.8679097238925</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>906.053122037495</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.65275927321581</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2428193.542118741</v>
+        <v>2427496.880913652</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6136375.482610927</v>
+        <v>6136375.482610924</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>141.2929512404479</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>112.9492716398729</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>155.6718849712479</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.81478296402829</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>78.78485502651542</v>
       </c>
       <c r="F5" t="n">
-        <v>253.438429595935</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>115.1914618837556</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>196.5496682025252</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1135,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>196.1723863059666</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>208.7954407557548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>176.9928356388606</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28.76542746491501</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,10 +2061,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>103.7534293131364</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439311</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>46.27323811058075</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2535,10 +2535,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>106.2107844952006</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>213.8764542074655</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>264.5762848854865</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868326</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>61.2259745345316</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>60.64582998875706</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>134.2803791629851</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3720,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.7047943182447</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864449</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399271</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>96.44420510686395</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>273.1206945954281</v>
+        <v>243.9934767871238</v>
       </c>
       <c r="C2" t="n">
-        <v>250.2603686491322</v>
+        <v>101.2733240189946</v>
       </c>
       <c r="D2" t="n">
-        <v>231.0081518745366</v>
+        <v>82.02110724439892</v>
       </c>
       <c r="E2" t="n">
-        <v>209.0716160627982</v>
+        <v>60.08457143266052</v>
       </c>
       <c r="F2" t="n">
-        <v>187.9878382926025</v>
+        <v>39.00079366246482</v>
       </c>
       <c r="G2" t="n">
-        <v>187.6891799224552</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884621</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>380.7336570066843</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>859.6725812491122</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491122</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.61150549154</v>
+        <v>882.5260259873608</v>
       </c>
       <c r="N2" t="n">
-        <v>1817.550429733968</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.550429733968</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733968</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733968</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660504</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256916</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.336869383166</v>
+        <v>1473.250055615265</v>
       </c>
       <c r="W2" t="n">
-        <v>701.9455196835124</v>
+        <v>1076.858705915612</v>
       </c>
       <c r="X2" t="n">
-        <v>290.2255208512597</v>
+        <v>1069.179111123764</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.928654846554</v>
+        <v>663.8418410786538</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.542625066816</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843207</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996057</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725429</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554471</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730511</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353607</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353607</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>126.4191340353607</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>605.3580582777887</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>605.3580582777887</v>
+        <v>796.7851917762496</v>
       </c>
       <c r="M3" t="n">
-        <v>605.3580582777887</v>
+        <v>1275.724116018679</v>
       </c>
       <c r="N3" t="n">
-        <v>605.3580582777887</v>
+        <v>1754.663040261108</v>
       </c>
       <c r="O3" t="n">
-        <v>910.0030534259602</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.941977668388</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531167</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177125</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474803</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.13438539444</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533706</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366923</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335863</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868787</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.2892318563563</v>
+        <v>195.9464635461033</v>
       </c>
       <c r="C4" t="n">
-        <v>250.3166687352723</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99989586204296</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="E4" t="n">
-        <v>86.99989586204296</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="F4" t="n">
-        <v>86.99989586204296</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="G4" t="n">
-        <v>86.99989586204296</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647543</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>96.19346351647543</v>
+        <v>38.71266663274213</v>
       </c>
       <c r="L4" t="n">
-        <v>450.8827848108962</v>
+        <v>393.4019879271629</v>
       </c>
       <c r="M4" t="n">
-        <v>842.068579781147</v>
+        <v>784.5877828974137</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.560090657183</v>
+        <v>1162.07929377345</v>
       </c>
       <c r="O4" t="n">
-        <v>1574.988219336946</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1691.767416841776</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342075</v>
+        <v>1411.58296834208</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950104</v>
+        <v>1129.871500950109</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226168</v>
+        <v>855.0190971226218</v>
       </c>
       <c r="X4" t="n">
-        <v>612.4552005684219</v>
+        <v>612.4552005684269</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.4552005684219</v>
+        <v>386.112432258169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1874.83396633247</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C5" t="n">
-        <v>1447.93323634577</v>
+        <v>568.7539436475352</v>
       </c>
       <c r="D5" t="n">
-        <v>1024.64061553077</v>
+        <v>145.4613228325354</v>
       </c>
       <c r="E5" t="n">
-        <v>598.6636756786278</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1899.61838738015</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>1891.938792588301</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1890.641926583596</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2141720205701</v>
+        <v>479.4453404076404</v>
       </c>
       <c r="C7" t="n">
-        <v>623.2416088994861</v>
+        <v>479.4453404076404</v>
       </c>
       <c r="D7" t="n">
-        <v>459.9248360262568</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.533291375449</v>
+        <v>1695.081845203617</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1413.370377811646</v>
       </c>
       <c r="W7" t="n">
-        <v>1454.286805597088</v>
+        <v>1138.517973984159</v>
       </c>
       <c r="X7" t="n">
-        <v>1211.722909042894</v>
+        <v>895.9540774299639</v>
       </c>
       <c r="Y7" t="n">
-        <v>985.3801407326357</v>
+        <v>669.611309119706</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>709.2637433779112</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1130.408973674147</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.112107669441</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1699405917395</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>856.0490050883208</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>684.0764419672367</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>520.7596690940074</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.026124276713</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1515.121638664839</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1272.557742110644</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1046.214973800386</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,37 +5050,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614083</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399956</v>
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3688.37878668216</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D13" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E13" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F13" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>4719.18136743828</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>4438.996918938585</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>4157.285451546613</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>4157.285451546613</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>3914.721554992418</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>3688.37878668216</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,19 +5266,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5287,28 +5287,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
@@ -5360,25 +5360,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>1582.26891798564</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>776.7012749360533</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>604.7287118149693</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D16" t="n">
-        <v>441.41193894174</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E16" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1992.33777973203</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1710.626312340059</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1435.773908512572</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1193.210011958377</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.867243648119</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1654.390500794518</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1654.390500794518</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1411.826604240323</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.483835930065</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883229</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623577</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5758,19 +5758,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>557.3635891120873</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
         <v>1446.844867123559</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>966.1989425207157</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>794.2263793996317</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>630.9096065264024</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>464.7014006792559</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>292.8396264538163</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1955.492679006434</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1673.781211614463</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.928807786976</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1156.364911232781</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1156.364911232781</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>775.6620294727279</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>603.6894663516439</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1429.986740661465</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>2019.640305074347</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1744.78790124686</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>381.4468456473314</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K30" t="n">
-        <v>971.931772215671</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L30" t="n">
-        <v>1808.730580298577</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M30" t="n">
-        <v>1808.730580298577</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1601.992572952389</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1601.992572952389</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1601.992572952389</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>1364.825557038856</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O33" t="n">
-        <v>1364.825557038856</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>208.2661037548711</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>208.2661037548711</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>208.2661037548711</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>208.2661037548711</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3530.273159564166</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C37" t="n">
-        <v>3530.273159564166</v>
+        <v>681.046097256067</v>
       </c>
       <c r="D37" t="n">
-        <v>3366.956386690937</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="E37" t="n">
-        <v>3200.748180843791</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F37" t="n">
-        <v>3200.748180843791</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>3756.615927874424</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>3530.273159564166</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4640539534684</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>2101.340160059445</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>733.72140846125</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>570.4046355880207</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>404.1964297408742</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>404.1964297408742</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>237.9394600351064</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1542.018283751469</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1542.018283751469</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>786.8947875232845</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>614.9222244022005</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D43" t="n">
-        <v>451.6054515289712</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E43" t="n">
-        <v>285.3972456818248</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F43" t="n">
-        <v>113.5354714563852</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>113.5354714563852</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>113.5354714563852</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.967421099803</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.403524545608</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>977.0607562353503</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,46 +7648,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7718,34 +7718,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>946.5481644506465</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>946.5481644506465</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>946.5481644506465</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
         <v>274.1644876312681</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>374.9063450556541</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.541291948777</v>
+        <v>519.5412919487783</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533995</v>
+        <v>39.73581606682426</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884136</v>
+        <v>521.0563139884149</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7999,7 +7999,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.175924987301</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681984</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662969</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>330.8941070436075</v>
+        <v>33.98746096163244</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587963</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>20.97529217031262</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>257.8539471611812</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8218,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>185.9167539104602</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M9" t="n">
-        <v>98.52275580777444</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555769</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>625.4779643536372</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>453.1210588457837</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>743.9259979858332</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9023,13 +9023,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>270.9648976856321</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,13 +9172,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>772.3958632350179</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>749.1541615704315</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,13 +9491,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9889,13 +9889,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.1919409183301</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>124.3756766890881</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10439,7 +10439,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1022.176719479639</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>384.5745552399217</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>765.1769988726438</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10606,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>968.5400018884028</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>700.6282357017791</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11074,7 +11074,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451545</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11083,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11302,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>967.5075822902267</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>273.92387204262</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63.91311865749836</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>135.78069632376</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>175.1409234049149</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>118.3211618981294</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.8930952940115</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>65.01789851058589</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>12.80631912921223</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>37.45454936137503</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>109.0268629553415</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>179.4924275998958</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.077926643942078</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>87.65045210707571</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.23940003763305</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26073,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513232.0426107609</v>
+        <v>513232.042610761</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>535521.0028978623</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>535521.0028978623</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>535521.0028978623</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>535521.0028978623</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535521.0028978623</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>535521.0028978621</v>
+        <v>535521.0028978622</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>535521.0028978623</v>
+        <v>535521.0028978621</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106048</v>
+        <v>553320.5346106051</v>
       </c>
       <c r="C2" t="n">
+        <v>553320.5346106051</v>
+      </c>
+      <c r="D2" t="n">
         <v>553320.5346106049</v>
       </c>
-      <c r="D2" t="n">
-        <v>553320.534610605</v>
-      </c>
       <c r="E2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="F2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="G2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="I2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="J2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="L2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="N2" t="n">
         <v>533928.8829805749</v>
       </c>
-      <c r="G2" t="n">
-        <v>533928.8829805747</v>
-      </c>
-      <c r="H2" t="n">
-        <v>533928.8829805746</v>
-      </c>
-      <c r="I2" t="n">
-        <v>533928.8829805747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>533928.8829805749</v>
-      </c>
-      <c r="K2" t="n">
-        <v>533928.8829805751</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533928.8829805749</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533928.8829805746</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533928.8829805747</v>
-      </c>
       <c r="O2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805752</v>
       </c>
       <c r="P2" t="n">
         <v>533928.8829805749</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361233</v>
+        <v>23406.83367361193</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701988</v>
+        <v>18646.60035701956</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795536</v>
+        <v>203366.9722795534</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26429,19 +26429,19 @@
         <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="G4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784774</v>
       </c>
       <c r="I4" t="n">
+        <v>86696.74064784776</v>
+      </c>
+      <c r="J4" t="n">
         <v>86696.74064784778</v>
-      </c>
-      <c r="J4" t="n">
-        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26456,7 +26456,7 @@
         <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>86696.74064784772</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="P4" t="n">
         <v>86696.74064784775</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216123</v>
+        <v>63041.2228221613</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>124787.6434392989</v>
       </c>
       <c r="C6" t="n">
-        <v>271223.7211469441</v>
+        <v>271223.7211469447</v>
       </c>
       <c r="D6" t="n">
-        <v>294630.5548205565</v>
+        <v>294630.5548205564</v>
       </c>
       <c r="E6" t="n">
-        <v>153742.7235876567</v>
+        <v>153691.6929254727</v>
       </c>
       <c r="F6" t="n">
-        <v>369482.0801442974</v>
+        <v>369431.0494821133</v>
       </c>
       <c r="G6" t="n">
-        <v>369482.0801442973</v>
+        <v>369431.0494821132</v>
       </c>
       <c r="H6" t="n">
-        <v>369482.0801442972</v>
+        <v>369431.0494821132</v>
       </c>
       <c r="I6" t="n">
-        <v>369482.0801442973</v>
+        <v>369431.0494821132</v>
       </c>
       <c r="J6" t="n">
-        <v>242904.8115640087</v>
+        <v>242853.7809018239</v>
       </c>
       <c r="K6" t="n">
-        <v>350835.4797872778</v>
+        <v>350784.4491250933</v>
       </c>
       <c r="L6" t="n">
-        <v>369482.0801442974</v>
+        <v>369431.0494821132</v>
       </c>
       <c r="M6" t="n">
-        <v>189418.2086891295</v>
+        <v>189367.1780269457</v>
       </c>
       <c r="N6" t="n">
-        <v>369482.0801442973</v>
+        <v>369431.0494821132</v>
       </c>
       <c r="O6" t="n">
-        <v>369482.0801442974</v>
+        <v>369431.0494821135</v>
       </c>
       <c r="P6" t="n">
-        <v>369482.0801442974</v>
+        <v>369431.0494821132</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162523</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162523</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162523</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>281.338771446385</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>181.9404231008326</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.58095251862522</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27554,7 +27554,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>94.54352284289885</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>342.9323154271056</v>
       </c>
       <c r="F5" t="n">
-        <v>167.4345103965587</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>162.1911421309432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>75.55421158668693</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>226.4593363808662</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28070,10 +28070,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>63.30843903345735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.732085821944879e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>345.4863855700676</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539676</v>
+        <v>2.304553167392451</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539689</v>
       </c>
       <c r="O3" t="n">
-        <v>307.7222173213853</v>
+        <v>10.81557123941021</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.01063771760061943</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>235.4731465031947</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34938,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M9" t="n">
-        <v>75.42597529544646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>361.479615956145</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>587.9026025434059</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>706.6463751513871</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>249.1940564808034</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,13 +35892,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355862</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>726.6390748562019</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36609,13 +36609,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.4449026293516</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.80031487885682</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1000.833691266097</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>727.745735973212</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37326,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>930.2279594557799</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37794,7 +37794,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891304</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>930.2279594557806</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>250.7519823203978</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
